--- a/data/record_2024-07-01至2024-07-31.xlsx
+++ b/data/record_2024-07-01至2024-07-31.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,22 +500,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>乘后金额</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>amount</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>乘后金额</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>是否不计入</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>是否冲账</t>
         </is>
       </c>
     </row>
@@ -576,12 +566,6 @@
       <c r="N2" t="n">
         <v>-10</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -640,12 +624,6 @@
       <c r="N3" t="n">
         <v>-6</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -704,12 +682,6 @@
       <c r="N4" t="n">
         <v>-11.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -768,12 +740,6 @@
       <c r="N5" t="n">
         <v>-57.69</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -832,12 +798,6 @@
       <c r="N6" t="n">
         <v>-8</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -896,12 +856,6 @@
       <c r="N7" t="n">
         <v>-14</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -960,12 +914,6 @@
       <c r="N8" t="n">
         <v>-134.8</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1018,15 +966,11 @@
           <t>余额宝</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>-28.8</v>
+      </c>
       <c r="N9" t="n">
         <v>-28.8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1086,12 +1030,6 @@
       <c r="N10" t="n">
         <v>-8</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1150,12 +1088,6 @@
       <c r="N11" t="n">
         <v>-28</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1208,15 +1140,11 @@
           <t>余额宝</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>-99</v>
+      </c>
       <c r="N12" t="n">
         <v>-99</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1276,12 +1204,6 @@
       <c r="N13" t="n">
         <v>-30</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1335,16 +1257,10 @@
         </is>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>11</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1404,12 +1320,6 @@
       <c r="N15" t="n">
         <v>20</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1468,12 +1378,6 @@
       <c r="N16" t="n">
         <v>-38.9</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1489,7 +1393,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>收入</t>
+          <t>不计收支</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1530,12 +1434,6 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1553,7 +1451,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>支出</t>
+          <t>不计收支</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1591,15 +1489,9 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1660,12 +1552,6 @@
       <c r="N19" t="n">
         <v>-18</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1724,12 +1610,6 @@
       <c r="N20" t="n">
         <v>-325</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1788,12 +1668,6 @@
       <c r="N21" t="n">
         <v>-582</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1852,12 +1726,6 @@
       <c r="N22" t="n">
         <v>-28</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1916,16 +1784,10 @@
       <c r="N23" t="n">
         <v>-28</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45498.10729166667</v>
+        <v>45498</v>
       </c>
       <c r="B24" t="n">
         <v>7</v>
@@ -1974,15 +1836,11 @@
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>7753.9</v>
+      </c>
       <c r="N24" t="n">
         <v>7753.9</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1999,7 +1857,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>收入</t>
+          <t>不计收支</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2040,12 +1898,6 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2106,12 +1958,6 @@
       <c r="N26" t="n">
         <v>-5</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2127,7 +1973,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>支出</t>
+          <t>不计收支</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2165,21 +2011,15 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N27" t="n">
-        <v>-0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45496.10729166667</v>
+        <v>45496</v>
       </c>
       <c r="B28" t="n">
         <v>7</v>
@@ -2228,15 +2068,11 @@
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>-170.32</v>
+      </c>
       <c r="N28" t="n">
         <v>-170.32</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2296,12 +2132,6 @@
       <c r="N29" t="n">
         <v>1915</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2360,12 +2190,6 @@
       <c r="N30" t="n">
         <v>-25</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2424,12 +2248,6 @@
       <c r="N31" t="n">
         <v>-31</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2488,12 +2306,6 @@
       <c r="N32" t="n">
         <v>-30</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2552,16 +2364,10 @@
       <c r="N33" t="n">
         <v>-3.9</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45491.10729166667</v>
+        <v>45491</v>
       </c>
       <c r="B34" t="n">
         <v>7</v>
@@ -2610,15 +2416,11 @@
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>-12481</v>
+      </c>
       <c r="N34" t="n">
         <v>-12481</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2678,12 +2480,6 @@
       <c r="N35" t="n">
         <v>-29.39</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2742,12 +2538,6 @@
       <c r="N36" t="n">
         <v>-21</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2806,16 +2596,10 @@
       <c r="N37" t="n">
         <v>-540</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45489.10729166667</v>
+        <v>45489</v>
       </c>
       <c r="B38" t="n">
         <v>7</v>
@@ -2864,15 +2648,11 @@
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>2455</v>
+      </c>
       <c r="N38" t="n">
         <v>2455</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2927,15 +2707,9 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>30</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2991,16 +2765,10 @@
         </is>
       </c>
       <c r="M40" t="n">
+        <v>-33</v>
+      </c>
+      <c r="N40" t="n">
         <v>-3</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-33</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3060,12 +2828,6 @@
       <c r="N41" t="n">
         <v>-30</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -3124,12 +2886,6 @@
       <c r="N42" t="n">
         <v>-76</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3182,15 +2938,11 @@
           <t>余额宝</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>50</v>
+      </c>
       <c r="N43" t="n">
         <v>50</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3250,12 +3002,6 @@
       <c r="N44" t="n">
         <v>-2</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3314,12 +3060,6 @@
       <c r="N45" t="n">
         <v>-12</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -3378,12 +3118,6 @@
       <c r="N46" t="n">
         <v>-48</v>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3442,12 +3176,6 @@
       <c r="N47" t="n">
         <v>-31.4</v>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3506,12 +3234,6 @@
       <c r="N48" t="n">
         <v>-9</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3570,12 +3292,6 @@
       <c r="N49" t="n">
         <v>-9</v>
       </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3629,15 +3345,9 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="N50" t="n">
-        <v>1080</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3698,12 +3408,6 @@
       <c r="N51" t="n">
         <v>-1600</v>
       </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3762,12 +3466,6 @@
       <c r="N52" t="n">
         <v>-900</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3826,12 +3524,6 @@
       <c r="N53" t="n">
         <v>-900</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3890,12 +3582,6 @@
       <c r="N54" t="n">
         <v>-900</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3949,16 +3635,10 @@
         </is>
       </c>
       <c r="M55" t="n">
+        <v>-1620</v>
+      </c>
+      <c r="N55" t="n">
         <v>-540</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-1620</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -4018,23 +3698,17 @@
       <c r="N56" t="n">
         <v>-15.56</v>
       </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45476.88961805555</v>
+        <v>45477</v>
       </c>
       <c r="B57" t="n">
         <v>7</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>银行卡账单</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4044,26 +3718,26 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>对方已收钱</t>
+          <t>交易成功</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>转账</t>
+          <t>类型</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>广厦快递驿站</t>
+          <t>本人</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>转账备注:微信转账</t>
+          <t>信用卡还款视频会员</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
+        <v>36.35</v>
       </c>
       <c r="J57" t="n">
         <v>-1</v>
@@ -4077,83 +3751,73 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-8</v>
+        <v>-36.35</v>
       </c>
       <c r="N57" t="n">
-        <v>-8</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
+        <v>-36.35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45476.51009259259</v>
+        <v>45476.88961805555</v>
       </c>
       <c r="B58" t="n">
         <v>7</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>收入</t>
+          <t>支出</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>交易成功</t>
+          <t>对方已收钱</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>商户消费</t>
+          <t>转账</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>**明</t>
+          <t>广厦快递驿站</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>收钱码收款</t>
+          <t>转账备注:微信转账</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>余额宝</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr"/>
+          <t>民生银行储蓄卡(4827)</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-8</v>
+      </c>
       <c r="N58" t="n">
-        <v>100</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45476.50915509259</v>
+        <v>45476.51009259259</v>
       </c>
       <c r="B59" t="n">
         <v>7</v>
@@ -4165,7 +3829,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>支出</t>
+          <t>收入</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4180,175 +3844,161 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>沧州市运河区荣含家用电器经销处</t>
+          <t>**明</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>沧州市运河区荣含家用电器经销处</t>
+          <t>收钱码收款</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>100</v>
       </c>
       <c r="J59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>华夏银行信用卡(1483)</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr"/>
+          <t>余额宝</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>100</v>
+      </c>
       <c r="N59" t="n">
-        <v>-100</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45476.50560185185</v>
+        <v>45476.50915509259</v>
       </c>
       <c r="B60" t="n">
         <v>7</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>收入</t>
+          <t>支出</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>已存入零钱</t>
+          <t>交易成功</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>转账</t>
+          <t>商户消费</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>光大银行郭秋松18733777570</t>
+          <t>沧州市运河区荣含家用电器经销处</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>转账备注:微信转账</t>
+          <t>沧州市运河区荣含家用电器经销处</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>零钱</t>
+          <t>华夏银行信用卡(1483)</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>121</v>
+        <v>-100</v>
       </c>
       <c r="N60" t="n">
-        <v>121</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45476.50450231481</v>
+        <v>45476.50560185185</v>
       </c>
       <c r="B61" t="n">
         <v>7</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>支出</t>
+          <t>收入</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>交易成功</t>
+          <t>已存入零钱</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>商户消费</t>
+          <t>转账</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>任丘市雅赞母婴棉纱家居</t>
+          <t>光大银行郭秋松18733777570</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>收款</t>
+          <t>转账备注:微信转账</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>120.32</v>
+        <v>121</v>
       </c>
       <c r="J61" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>光大银行信用卡(5851)</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
+          <t>零钱</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>121</v>
+      </c>
       <c r="N61" t="n">
-        <v>-120.32</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45476.50269675926</v>
+        <v>45476.50450231481</v>
       </c>
       <c r="B62" t="n">
         <v>7</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4358,7 +4008,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>支付成功</t>
+          <t>交易成功</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4368,16 +4018,16 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>北京联通</t>
+          <t>任丘市雅赞母婴棉纱家居</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>中国联通交费充值</t>
+          <t>收款</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>50</v>
+        <v>120.32</v>
       </c>
       <c r="J62" t="n">
         <v>-1</v>
@@ -4391,21 +4041,15 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-50</v>
+        <v>-120.32</v>
       </c>
       <c r="N62" t="n">
-        <v>-50</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
+        <v>-120.32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45476.38274305555</v>
+        <v>45476.50269675926</v>
       </c>
       <c r="B63" t="n">
         <v>7</v>
@@ -4432,16 +4076,16 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>中铁网络</t>
+          <t>北京联通</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>12306消费</t>
+          <t>中国联通交费充值</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1617</v>
+        <v>50</v>
       </c>
       <c r="J63" t="n">
         <v>-1</v>
@@ -4451,25 +4095,19 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>民生银行储蓄卡(4827)</t>
+          <t>光大银行信用卡(5851)</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-1617</v>
+        <v>-50</v>
       </c>
       <c r="N63" t="n">
-        <v>-1617</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45476.3546875</v>
+        <v>45476.38274305555</v>
       </c>
       <c r="B64" t="n">
         <v>7</v>
@@ -4496,16 +4134,16 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>拼多多平台商户</t>
+          <t>中铁网络</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>先用后付</t>
+          <t>12306消费</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>16.9</v>
+        <v>1617</v>
       </c>
       <c r="J64" t="n">
         <v>-1</v>
@@ -4515,25 +4153,19 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>零钱</t>
+          <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-16.9</v>
+        <v>-1617</v>
       </c>
       <c r="N64" t="n">
-        <v>-16.9</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
+        <v>-1617</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45476.33982638889</v>
+        <v>45476.3546875</v>
       </c>
       <c r="B65" t="n">
         <v>7</v>
@@ -4569,7 +4201,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>44.8</v>
+        <v>16.9</v>
       </c>
       <c r="J65" t="n">
         <v>-1</v>
@@ -4579,64 +4211,58 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>民生银行储蓄卡(4827)</t>
+          <t>零钱</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-44.8</v>
+        <v>-16.9</v>
       </c>
       <c r="N65" t="n">
-        <v>-44.8</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
+        <v>-16.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45476.10729166667</v>
+        <v>45476.33982638889</v>
       </c>
       <c r="B66" t="n">
         <v>7</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>银行卡账单</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>收入</t>
+          <t>支出</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>交易成功</t>
+          <t>支付成功</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>类型</t>
+          <t>商户消费</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>本人</t>
+          <t>拼多多平台商户</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>差旅费-借款</t>
+          <t>先用后付</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>15000</v>
+        <v>44.8</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -4646,91 +4272,81 @@
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>-44.8</v>
+      </c>
       <c r="N66" t="n">
-        <v>15000</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
+        <v>-44.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45475.71520833333</v>
+        <v>45476</v>
       </c>
       <c r="B67" t="n">
         <v>7</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>银行卡账单</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>支出</t>
+          <t>收入</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>支付成功</t>
+          <t>交易成功</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>商户消费</t>
+          <t>类型</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>拼多多平台商户</t>
+          <t>本人</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>先用后付</t>
+          <t>差旅费-借款</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>17.9</v>
+        <v>15000</v>
       </c>
       <c r="J67" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>零钱</t>
+          <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-17.9</v>
+        <v>15000</v>
       </c>
       <c r="N67" t="n">
-        <v>-17.9</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45475.39476851852</v>
+        <v>45475.71520833333</v>
       </c>
       <c r="B68" t="n">
         <v>7</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4740,7 +4356,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>交易成功</t>
+          <t>支付成功</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4750,16 +4366,16 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>t***7</t>
+          <t>拼多多平台商户</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>闲鱼转账</t>
+          <t>先用后付</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>13</v>
+        <v>17.9</v>
       </c>
       <c r="J68" t="n">
         <v>-1</v>
@@ -4769,30 +4385,26 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>余额宝</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr"/>
+          <t>零钱</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>-17.9</v>
+      </c>
       <c r="N68" t="n">
-        <v>-13</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
+        <v>-17.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45474.71998842592</v>
+        <v>45475.39476851852</v>
       </c>
       <c r="B69" t="n">
         <v>7</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4802,26 +4414,26 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>已转账</t>
+          <t>交易成功</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>扫二维码付款</t>
+          <t>商户消费</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>棉花糖便利店丨运河店</t>
+          <t>t***7</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>收款方备注:二维码收款</t>
+          <t>闲鱼转账</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J69" t="n">
         <v>-1</v>
@@ -4831,25 +4443,19 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>民生银行储蓄卡(4827)</t>
+          <t>余额宝</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="N69" t="n">
-        <v>-16</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45474.46395833333</v>
+        <v>45474.71998842592</v>
       </c>
       <c r="B70" t="n">
         <v>7</v>
@@ -4866,26 +4472,26 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>支付成功</t>
+          <t>已转账</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>商户消费</t>
+          <t>扫二维码付款</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>拼多多平台商户</t>
+          <t>棉花糖便利店丨运河店</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>先用后付</t>
+          <t>收款方备注:二维码收款</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>42.38</v>
+        <v>16</v>
       </c>
       <c r="J70" t="n">
         <v>-1</v>
@@ -4895,82 +4501,130 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>零钱</t>
+          <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-42.38</v>
+        <v>-16</v>
       </c>
       <c r="N70" t="n">
-        <v>-42.38</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45474.10729166667</v>
+        <v>45474.46395833333</v>
       </c>
       <c r="B71" t="n">
         <v>7</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>支付成功</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>商户消费</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>拼多多平台商户</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>先用后付</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>42.38</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>零钱</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>-42.38</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-42.38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>银行卡账单</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>收入</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>交易成功</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>类型</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>本人</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>工资</t>
         </is>
       </c>
-      <c r="I71" t="n">
+      <c r="I72" t="n">
         <v>7102.2</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M72" t="n">
         <v>7102.2</v>
       </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
+      <c r="N72" t="n">
+        <v>7102.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/record_2024-07-01至2024-07-31.xlsx
+++ b/data/record_2024-07-01至2024-07-31.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,14 +440,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>交易时间</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>月份</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>来源</t>
@@ -485,36 +485,16 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>逻辑1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>逻辑2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>支付方式</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>乘后金额</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>45504.36454861111</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -549,30 +529,18 @@
       <c r="I2" t="n">
         <v>10</v>
       </c>
-      <c r="J2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>零钱</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>零钱</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B3" s="2" t="n">
         <v>45504.3596412037</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -607,30 +575,18 @@
       <c r="I3" t="n">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>-6</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-6</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>45504.35674768518</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -665,30 +621,18 @@
       <c r="I4" t="n">
         <v>11.5</v>
       </c>
-      <c r="J4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>-11.5</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-11.5</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>45502.9169675926</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -723,30 +667,18 @@
       <c r="I5" t="n">
         <v>57.69</v>
       </c>
-      <c r="J5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>-57.69</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-57.69</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>45502.90480324074</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -781,30 +713,18 @@
       <c r="I6" t="n">
         <v>8</v>
       </c>
-      <c r="J6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>-8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-8</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>45502.90359953704</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -839,30 +759,18 @@
       <c r="I7" t="n">
         <v>14</v>
       </c>
-      <c r="J7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>-14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-14</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>45501.75855324074</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -897,30 +805,18 @@
       <c r="I8" t="n">
         <v>134.8</v>
       </c>
-      <c r="J8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>-134.8</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-134.8</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" t="n">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>45500.94255787037</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -955,30 +851,18 @@
       <c r="I9" t="n">
         <v>28.8</v>
       </c>
-      <c r="J9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>余额宝</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>-28.8</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-28.8</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>45500.91857638889</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1013,30 +897,18 @@
       <c r="I10" t="n">
         <v>8</v>
       </c>
-      <c r="J10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>-8</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-8</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>45500.91763888889</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1071,30 +943,18 @@
       <c r="I11" t="n">
         <v>28</v>
       </c>
-      <c r="J11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>-28</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-28</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" t="n">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>45500.64291666666</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1129,30 +989,18 @@
       <c r="I12" t="n">
         <v>99</v>
       </c>
-      <c r="J12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>余额宝</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>-99</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-99</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>45500.49016203704</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1187,30 +1035,18 @@
       <c r="I13" t="n">
         <v>30</v>
       </c>
-      <c r="J13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>-30</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-30</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>45500.31564814815</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1245,30 +1081,18 @@
       <c r="I14" t="n">
         <v>11</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>招商银行储蓄卡(7752)</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>45499.77378472222</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1303,30 +1127,18 @@
       <c r="I15" t="n">
         <v>20</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>20</v>
-      </c>
-      <c r="N15" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>45499.77358796296</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1361,31 +1173,19 @@
       <c r="I16" t="n">
         <v>38.9</v>
       </c>
-      <c r="J16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-38.9</v>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>45499.77047453704</v>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>微信</t>
@@ -1393,7 +1193,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>不计收支</t>
+          <t>收入</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1419,31 +1219,19 @@
       <c r="I17" t="n">
         <v>38.9</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>45499.76128472222</v>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>微信</t>
@@ -1451,7 +1239,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>不计收支</t>
+          <t>支出</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1477,30 +1265,18 @@
       <c r="I18" t="n">
         <v>38.9</v>
       </c>
-      <c r="J18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>45499.58958333333</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1535,30 +1311,18 @@
       <c r="I19" t="n">
         <v>18</v>
       </c>
-      <c r="J19" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>-18</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-18</v>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>45499.41954861111</v>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1593,30 +1357,18 @@
       <c r="I20" t="n">
         <v>325</v>
       </c>
-      <c r="J20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>-325</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-325</v>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>45498.93682870371</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1651,30 +1403,18 @@
       <c r="I21" t="n">
         <v>582</v>
       </c>
-      <c r="J21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>-582</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-582</v>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>45498.55175925926</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1709,30 +1449,18 @@
       <c r="I22" t="n">
         <v>28</v>
       </c>
-      <c r="J22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>-28</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-28</v>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>45498.55168981481</v>
-      </c>
-      <c r="B23" t="n">
-        <v>7</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1767,30 +1495,18 @@
       <c r="I23" t="n">
         <v>28</v>
       </c>
-      <c r="J23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>-28</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-28</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" t="n">
+        <v>64</v>
+      </c>
+      <c r="B24" s="2" t="n">
         <v>45498</v>
-      </c>
-      <c r="B24" t="n">
-        <v>7</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1825,31 +1541,19 @@
       <c r="I24" t="n">
         <v>7753.9</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>7753.9</v>
-      </c>
-      <c r="N24" t="n">
-        <v>7753.9</v>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2" t="n">
         <v>45497.76158564815</v>
       </c>
-      <c r="B25" t="n">
-        <v>7</v>
-      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>微信</t>
@@ -1857,7 +1561,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>不计收支</t>
+          <t>收入</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1883,30 +1587,18 @@
       <c r="I25" t="n">
         <v>8</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="n">
         <v>45496.88861111111</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1941,31 +1633,19 @@
       <c r="I26" t="n">
         <v>5</v>
       </c>
-      <c r="J26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>-5</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-5</v>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="n">
         <v>45496.76155092593</v>
       </c>
-      <c r="B27" t="n">
-        <v>7</v>
-      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>微信</t>
@@ -1973,7 +1653,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>不计收支</t>
+          <t>支出</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1999,30 +1679,18 @@
       <c r="I27" t="n">
         <v>8</v>
       </c>
-      <c r="J27" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>-0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" t="n">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="n">
         <v>45496</v>
-      </c>
-      <c r="B28" t="n">
-        <v>7</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2057,30 +1725,18 @@
       <c r="I28" t="n">
         <v>170.32</v>
       </c>
-      <c r="J28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>-170.32</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-170.32</v>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="n">
         <v>45495.425</v>
-      </c>
-      <c r="B29" t="n">
-        <v>7</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2115,30 +1771,18 @@
       <c r="I29" t="n">
         <v>1915</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1915</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1915</v>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" t="n">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="n">
         <v>45494.84123842593</v>
-      </c>
-      <c r="B30" t="n">
-        <v>7</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2173,30 +1817,18 @@
       <c r="I30" t="n">
         <v>25</v>
       </c>
-      <c r="J30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>-25</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-25</v>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" t="n">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="n">
         <v>45494.81511574074</v>
-      </c>
-      <c r="B31" t="n">
-        <v>7</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2231,30 +1863,18 @@
       <c r="I31" t="n">
         <v>31</v>
       </c>
-      <c r="J31" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>-31</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-31</v>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" t="n">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2" t="n">
         <v>45493.64296296296</v>
-      </c>
-      <c r="B32" t="n">
-        <v>7</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2289,30 +1909,18 @@
       <c r="I32" t="n">
         <v>30</v>
       </c>
-      <c r="J32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>-30</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-30</v>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" t="n">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="n">
         <v>45491.45680555556</v>
-      </c>
-      <c r="B33" t="n">
-        <v>7</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2347,30 +1955,18 @@
       <c r="I33" t="n">
         <v>3.9</v>
       </c>
-      <c r="J33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.9</v>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" t="n">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2" t="n">
         <v>45491</v>
-      </c>
-      <c r="B34" t="n">
-        <v>7</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2405,30 +2001,18 @@
       <c r="I34" t="n">
         <v>12481</v>
       </c>
-      <c r="J34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>-12481</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-12481</v>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" t="n">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="n">
         <v>45490.5459837963</v>
-      </c>
-      <c r="B35" t="n">
-        <v>7</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2463,30 +2047,18 @@
       <c r="I35" t="n">
         <v>29.39</v>
       </c>
-      <c r="J35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>-29.39</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-29.39</v>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2" t="n">
         <v>45489.47533564815</v>
-      </c>
-      <c r="B36" t="n">
-        <v>7</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2521,30 +2093,18 @@
       <c r="I36" t="n">
         <v>21</v>
       </c>
-      <c r="J36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>-21</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-21</v>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" t="n">
+        <v>30</v>
+      </c>
+      <c r="B37" s="2" t="n">
         <v>45489.38811342593</v>
-      </c>
-      <c r="B37" t="n">
-        <v>7</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2579,30 +2139,18 @@
       <c r="I37" t="n">
         <v>540</v>
       </c>
-      <c r="J37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>-540</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-540</v>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2" t="n">
         <v>45489</v>
-      </c>
-      <c r="B38" t="n">
-        <v>7</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2637,30 +2185,18 @@
       <c r="I38" t="n">
         <v>2455</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>2455</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2455</v>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="n">
         <v>45487.79758101852</v>
-      </c>
-      <c r="B39" t="n">
-        <v>7</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2695,30 +2231,18 @@
       <c r="I39" t="n">
         <v>30</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>30</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
+        <v>32</v>
+      </c>
+      <c r="B40" s="2" t="n">
         <v>45487.79721064815</v>
-      </c>
-      <c r="B40" t="n">
-        <v>7</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2753,30 +2277,18 @@
       <c r="I40" t="n">
         <v>33</v>
       </c>
-      <c r="J40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>-33</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3</v>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2" t="n">
         <v>45486.525</v>
-      </c>
-      <c r="B41" t="n">
-        <v>7</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2811,30 +2323,18 @@
       <c r="I41" t="n">
         <v>30</v>
       </c>
-      <c r="J41" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>-30</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-30</v>
-      </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
+        <v>34</v>
+      </c>
+      <c r="B42" s="2" t="n">
         <v>45484.91381944445</v>
-      </c>
-      <c r="B42" t="n">
-        <v>7</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2869,30 +2369,18 @@
       <c r="I42" t="n">
         <v>76</v>
       </c>
-      <c r="J42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>-76</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-76</v>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
+        <v>59</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <v>45484.44842592593</v>
-      </c>
-      <c r="B43" t="n">
-        <v>7</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2927,30 +2415,18 @@
       <c r="I43" t="n">
         <v>50</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>余额宝</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>50</v>
-      </c>
-      <c r="N43" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
+        <v>35</v>
+      </c>
+      <c r="B44" s="2" t="n">
         <v>45483.72625</v>
-      </c>
-      <c r="B44" t="n">
-        <v>7</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2985,30 +2461,18 @@
       <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="J44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2</v>
-      </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
+        <v>36</v>
+      </c>
+      <c r="B45" s="2" t="n">
         <v>45481.36767361111</v>
-      </c>
-      <c r="B45" t="n">
-        <v>7</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3043,30 +2507,18 @@
       <c r="I45" t="n">
         <v>12</v>
       </c>
-      <c r="J45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>-12</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-12</v>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
+        <v>37</v>
+      </c>
+      <c r="B46" s="2" t="n">
         <v>45480.5675</v>
-      </c>
-      <c r="B46" t="n">
-        <v>7</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -3101,30 +2553,18 @@
       <c r="I46" t="n">
         <v>48</v>
       </c>
-      <c r="J46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>-48</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-48</v>
-      </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" t="n">
+        <v>38</v>
+      </c>
+      <c r="B47" s="2" t="n">
         <v>45480.45319444445</v>
-      </c>
-      <c r="B47" t="n">
-        <v>7</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -3159,30 +2599,18 @@
       <c r="I47" t="n">
         <v>31.4</v>
       </c>
-      <c r="J47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>-31.4</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-31.4</v>
-      </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2" t="n">
         <v>45479.62462962963</v>
-      </c>
-      <c r="B48" t="n">
-        <v>7</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3217,30 +2645,18 @@
       <c r="I48" t="n">
         <v>9</v>
       </c>
-      <c r="J48" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>-9</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-9</v>
-      </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
+        <v>40</v>
+      </c>
+      <c r="B49" s="2" t="n">
         <v>45479.62425925926</v>
-      </c>
-      <c r="B49" t="n">
-        <v>7</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3275,30 +2691,18 @@
       <c r="I49" t="n">
         <v>9</v>
       </c>
-      <c r="J49" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>-9</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-9</v>
-      </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
+        <v>41</v>
+      </c>
+      <c r="B50" s="2" t="n">
         <v>45479.38211805555</v>
-      </c>
-      <c r="B50" t="n">
-        <v>7</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3333,30 +2737,18 @@
       <c r="I50" t="n">
         <v>1080</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1080</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
+        <v>42</v>
+      </c>
+      <c r="B51" s="2" t="n">
         <v>45479.38137731481</v>
-      </c>
-      <c r="B51" t="n">
-        <v>7</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3391,30 +2783,18 @@
       <c r="I51" t="n">
         <v>1600</v>
       </c>
-      <c r="J51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>-1600</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-1600</v>
-      </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="n">
         <v>45478.93023148148</v>
-      </c>
-      <c r="B52" t="n">
-        <v>7</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3449,30 +2829,18 @@
       <c r="I52" t="n">
         <v>900</v>
       </c>
-      <c r="J52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>-900</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-900</v>
-      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
+        <v>44</v>
+      </c>
+      <c r="B53" s="2" t="n">
         <v>45478.92875</v>
-      </c>
-      <c r="B53" t="n">
-        <v>7</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3507,30 +2875,18 @@
       <c r="I53" t="n">
         <v>900</v>
       </c>
-      <c r="J53" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>-900</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-900</v>
-      </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
+        <v>45</v>
+      </c>
+      <c r="B54" s="2" t="n">
         <v>45478.92759259259</v>
-      </c>
-      <c r="B54" t="n">
-        <v>7</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3565,30 +2921,18 @@
       <c r="I54" t="n">
         <v>900</v>
       </c>
-      <c r="J54" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>-900</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-900</v>
-      </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
+        <v>46</v>
+      </c>
+      <c r="B55" s="2" t="n">
         <v>45478.51542824074</v>
-      </c>
-      <c r="B55" t="n">
-        <v>7</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3623,30 +2967,18 @@
       <c r="I55" t="n">
         <v>1620</v>
       </c>
-      <c r="J55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>-1620</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-540</v>
-      </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
+        <v>47</v>
+      </c>
+      <c r="B56" s="2" t="n">
         <v>45477.67945601852</v>
-      </c>
-      <c r="B56" t="n">
-        <v>7</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3681,30 +3013,18 @@
       <c r="I56" t="n">
         <v>15.56</v>
       </c>
-      <c r="J56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>-15.56</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-15.56</v>
-      </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" t="n">
+        <v>70</v>
+      </c>
+      <c r="B57" s="2" t="n">
         <v>45477</v>
-      </c>
-      <c r="B57" t="n">
-        <v>7</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3739,30 +3059,18 @@
       <c r="I57" t="n">
         <v>36.35</v>
       </c>
-      <c r="J57" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>-36.35</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-36.35</v>
-      </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
+        <v>48</v>
+      </c>
+      <c r="B58" s="2" t="n">
         <v>45476.88961805555</v>
-      </c>
-      <c r="B58" t="n">
-        <v>7</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3797,30 +3105,18 @@
       <c r="I58" t="n">
         <v>8</v>
       </c>
-      <c r="J58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>-8</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-8</v>
-      </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2" t="n">
         <v>45476.51009259259</v>
-      </c>
-      <c r="B59" t="n">
-        <v>7</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3855,30 +3151,18 @@
       <c r="I59" t="n">
         <v>100</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>余额宝</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>100</v>
-      </c>
-      <c r="N59" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2" t="n">
         <v>45476.50915509259</v>
-      </c>
-      <c r="B60" t="n">
-        <v>7</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3913,30 +3197,18 @@
       <c r="I60" t="n">
         <v>100</v>
       </c>
-      <c r="J60" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>华夏银行信用卡(1483)</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>-100</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
+        <v>49</v>
+      </c>
+      <c r="B61" s="2" t="n">
         <v>45476.50560185185</v>
-      </c>
-      <c r="B61" t="n">
-        <v>7</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3971,30 +3243,18 @@
       <c r="I61" t="n">
         <v>121</v>
       </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>121</v>
-      </c>
-      <c r="N61" t="n">
-        <v>121</v>
-      </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="n">
         <v>45476.50450231481</v>
-      </c>
-      <c r="B62" t="n">
-        <v>7</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -4029,30 +3289,18 @@
       <c r="I62" t="n">
         <v>120.32</v>
       </c>
-      <c r="J62" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K62" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>光大银行信用卡(5851)</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>-120.32</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-120.32</v>
-      </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
+        <v>50</v>
+      </c>
+      <c r="B63" s="2" t="n">
         <v>45476.50269675926</v>
-      </c>
-      <c r="B63" t="n">
-        <v>7</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -4087,30 +3335,18 @@
       <c r="I63" t="n">
         <v>50</v>
       </c>
-      <c r="J63" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>光大银行信用卡(5851)</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>-50</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-50</v>
-      </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
+        <v>51</v>
+      </c>
+      <c r="B64" s="2" t="n">
         <v>45476.38274305555</v>
-      </c>
-      <c r="B64" t="n">
-        <v>7</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -4145,30 +3381,18 @@
       <c r="I64" t="n">
         <v>1617</v>
       </c>
-      <c r="J64" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>-1617</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-1617</v>
-      </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" t="n">
+        <v>52</v>
+      </c>
+      <c r="B65" s="2" t="n">
         <v>45476.3546875</v>
-      </c>
-      <c r="B65" t="n">
-        <v>7</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -4203,30 +3427,18 @@
       <c r="I65" t="n">
         <v>16.9</v>
       </c>
-      <c r="J65" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>-16.9</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-16.9</v>
-      </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
+        <v>53</v>
+      </c>
+      <c r="B66" s="2" t="n">
         <v>45476.33982638889</v>
-      </c>
-      <c r="B66" t="n">
-        <v>7</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -4261,30 +3473,18 @@
       <c r="I66" t="n">
         <v>44.8</v>
       </c>
-      <c r="J66" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>-44.8</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-44.8</v>
-      </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="n">
         <v>45476</v>
-      </c>
-      <c r="B67" t="n">
-        <v>7</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -4319,30 +3519,18 @@
       <c r="I67" t="n">
         <v>15000</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>15000</v>
-      </c>
-      <c r="N67" t="n">
-        <v>15000</v>
-      </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
+        <v>54</v>
+      </c>
+      <c r="B68" s="2" t="n">
         <v>45475.71520833333</v>
-      </c>
-      <c r="B68" t="n">
-        <v>7</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -4377,30 +3565,18 @@
       <c r="I68" t="n">
         <v>17.9</v>
       </c>
-      <c r="J68" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>-17.9</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-17.9</v>
-      </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
+        <v>63</v>
+      </c>
+      <c r="B69" s="2" t="n">
         <v>45475.39476851852</v>
-      </c>
-      <c r="B69" t="n">
-        <v>7</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -4435,30 +3611,18 @@
       <c r="I69" t="n">
         <v>13</v>
       </c>
-      <c r="J69" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>余额宝</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>-13</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-13</v>
-      </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
+        <v>55</v>
+      </c>
+      <c r="B70" s="2" t="n">
         <v>45474.71998842592</v>
-      </c>
-      <c r="B70" t="n">
-        <v>7</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -4493,30 +3657,18 @@
       <c r="I70" t="n">
         <v>16</v>
       </c>
-      <c r="J70" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>-16</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-16</v>
-      </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" t="n">
+        <v>56</v>
+      </c>
+      <c r="B71" s="2" t="n">
         <v>45474.46395833333</v>
-      </c>
-      <c r="B71" t="n">
-        <v>7</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -4551,30 +3703,18 @@
       <c r="I71" t="n">
         <v>42.38</v>
       </c>
-      <c r="J71" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>零钱</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>-42.38</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-42.38</v>
-      </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" t="n">
+        <v>67</v>
+      </c>
+      <c r="B72" s="2" t="n">
         <v>45474</v>
-      </c>
-      <c r="B72" t="n">
-        <v>7</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -4609,22 +3749,10 @@
       <c r="I72" t="n">
         <v>7102.2</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>民生银行储蓄卡(4827)</t>
         </is>
-      </c>
-      <c r="M72" t="n">
-        <v>7102.2</v>
-      </c>
-      <c r="N72" t="n">
-        <v>7102.2</v>
       </c>
     </row>
   </sheetData>
